--- a/xlsx/首相_intext.xlsx
+++ b/xlsx/首相_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="253">
   <si>
     <t>首相</t>
   </si>
@@ -35,7 +35,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%85%83%E9%A6%96</t>
   </si>
   <si>
-    <t>國家元首</t>
+    <t>国家元首</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB</t>
@@ -47,13 +47,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>總統</t>
+    <t>总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%80%E9%AB%98%E9%A0%98%E5%B0%8E%E4%BA%BA</t>
   </si>
   <si>
-    <t>最高領導人</t>
+    <t>最高领导人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E4%B8%BB%E5%B8%AD</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E5%B8%AD%E9%83%A8%E9%95%B7</t>
   </si>
   <si>
-    <t>首席部長</t>
+    <t>首席部长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%BB%E7%9D%A3</t>
@@ -101,19 +101,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E9%95%B7%E5%AE%98</t>
   </si>
   <si>
-    <t>行政長官</t>
+    <t>行政长官</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E9%96%A3</t>
   </si>
   <si>
-    <t>內閣</t>
+    <t>内阁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%86%E9%AB%94%E8%B2%A0%E8%B2%AC%E5%88%B6</t>
   </si>
   <si>
-    <t>集體負責制</t>
+    <t>集体负责制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%A8</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%83%A8%E9%95%B7</t>
   </si>
   <si>
-    <t>部長</t>
+    <t>部长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%87%A3</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%8B%99%E5%8D%BF</t>
   </si>
   <si>
-    <t>國務卿</t>
+    <t>国务卿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9C%81%E9%95%BF</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E6%9C%83%E5%88%B6</t>
   </si>
   <si>
-    <t>議會制</t>
+    <t>议会制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%95%8F%E5%88%B6</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E7%8D%A8%E8%A3%81</t>
   </si>
   <si>
-    <t>軍事獨裁</t>
+    <t>军事独裁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E5%85%83%E5%88%B6%E5%90%9B%E4%B8%BB%E7%AB%8B%E5%AE%AA%E5%88%B6</t>
@@ -215,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E5%B0%88%E5%88%B6</t>
   </si>
   <si>
-    <t>君主專制</t>
+    <t>君主专制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E9%A2%86%E5%AF%BC%E4%BA%BA%E5%88%97%E8%A1%A8</t>
@@ -227,25 +227,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E6%94%BF%E5%BA%9C%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國政府列表</t>
+    <t>各国政府列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E8%A1%8C%E6%94%BF%E9%83%A8%E9%96%80</t>
   </si>
   <si>
-    <t>Template talk-行政部門</t>
+    <t>Template talk-行政部门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>英語</t>
+    <t>英语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>國家</t>
+    <t>国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF</t>
@@ -275,13 +275,10 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AE%AE%E4%BC%9A%E5%88%B6</t>
   </si>
   <si>
-    <t>议会制</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%99%E9%A6%96%E9%95%B7%E5%88%B6</t>
   </si>
   <si>
-    <t>雙首長制</t>
+    <t>双首长制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
@@ -293,9 +290,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E9%A6%96%E8%85%A6</t>
   </si>
   <si>
-    <t>政府首腦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E8%AF%AD</t>
   </si>
   <si>
@@ -323,7 +317,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E5%85%A7%E9%96%A3%E7%B8%BD%E7%90%86%E5%A4%A7%E8%87%A3</t>
   </si>
   <si>
-    <t>日本內閣總理大臣</t>
+    <t>日本内阁总理大臣</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%AF%AD</t>
@@ -335,7 +329,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E6%94%BF%E6%B2%BB%E5%8F%B2</t>
   </si>
   <si>
-    <t>中國政治史</t>
+    <t>中国政治史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B0%E7%9B%B8</t>
@@ -353,7 +347,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E9%96%A3%E9%A6%96%E8%BC%94</t>
   </si>
   <si>
-    <t>內閣首輔</t>
+    <t>内阁首辅</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%8F%B2</t>
@@ -383,9 +377,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AF%AD</t>
   </si>
   <si>
-    <t>英语</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
   </si>
   <si>
@@ -401,7 +392,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E4%B8%BB%E9%82%A6%E8%81%AF</t>
   </si>
   <si>
-    <t>共主邦聯</t>
+    <t>共主邦联</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AD%81%E5%8C%97%E5%85%8B</t>
@@ -413,31 +404,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%86%E5%A3%AB%E8%98%AD</t>
   </si>
   <si>
-    <t>昆士蘭</t>
+    <t>昆士兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E6%A9%9F%E8%99%95</t>
   </si>
   <si>
-    <t>軍機處</t>
+    <t>军机处</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%90%86%E5%90%84%E5%9C%8B%E4%BA%8B%E5%8B%99%E8%A1%99%E9%96%80</t>
   </si>
   <si>
-    <t>總理各國事務衙門</t>
+    <t>总理各国事务衙门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%81%AD%E8%A6%AA%E7%8E%8B</t>
   </si>
   <si>
-    <t>恭親王</t>
+    <t>恭亲王</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%95%E8%A8%A2</t>
   </si>
   <si>
-    <t>奕訢</t>
+    <t>奕䜣</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E7%A5%A5</t>
@@ -449,7 +440,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E6%A9%9F%E5%A4%A7%E8%87%A3</t>
   </si>
   <si>
-    <t>軍機大臣</t>
+    <t>军机大臣</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E4%BA%A4</t>
@@ -461,7 +452,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E9%97%9C</t>
   </si>
   <si>
-    <t>海關</t>
+    <t>海关</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%8B%E5%8A%A1</t>
@@ -485,7 +476,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E6%9C%9D%E5%85%A7%E9%96%A3%E7%B8%BD%E7%90%86%E5%A4%A7%E8%87%A3</t>
   </si>
   <si>
-    <t>清朝內閣總理大臣</t>
+    <t>清朝内阁总理大臣</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
@@ -497,31 +488,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E7%AB%8B%E6%86%B2</t>
   </si>
   <si>
-    <t>君主立憲</t>
+    <t>君主立宪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E5%9C%8B%E5%8B%99%E9%99%A2</t>
   </si>
   <si>
-    <t>中華民國國務院</t>
+    <t>中华民国国务院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E5%9C%8B%E5%8B%99%E7%B8%BD%E7%90%86</t>
   </si>
   <si>
-    <t>中華民國國務總理</t>
+    <t>中华民国国务总理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%B0%91%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>國民政府</t>
+    <t>国民政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%9F%E4%B8%80%E4%B8%AD%E5%9B%BD</t>
@@ -539,19 +530,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E6%B3%95%E5%BE%8B</t>
   </si>
   <si>
-    <t>中華民國法律</t>
+    <t>中华民国法律</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E9%99%A2%E9%99%A2%E9%95%B7</t>
   </si>
   <si>
-    <t>行政院院長</t>
+    <t>行政院院长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%A3%E6%8F%86</t>
   </si>
   <si>
-    <t>閣揆</t>
+    <t>阁揆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -593,13 +584,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E7%AB%8B%E6%86%B2%E5%88%B6</t>
   </si>
   <si>
-    <t>君主立憲制</t>
+    <t>君主立宪制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%AD%97%E6%96%87%E5%8C%96%E5%9C%88</t>
   </si>
   <si>
-    <t>漢字文化圈</t>
+    <t>汉字文化圈</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97</t>
@@ -611,13 +602,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>中國</t>
+    <t>中国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE</t>
   </si>
   <si>
-    <t>朝鮮</t>
+    <t>朝鲜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%9D%E7%8E%8B</t>
@@ -629,9 +620,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9D%A5%E8%A5%BF%E4%BA%9A%E5%8D%8E%E8%AF%AD%E8%A7%84%E8%8C%83%E7%90%86%E4%BA%8B%E4%BC%9A</t>
   </si>
   <si>
@@ -689,13 +677,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%9C%8B%E6%B0%91%E9%BB%A8</t>
   </si>
   <si>
-    <t>中國國民黨</t>
+    <t>中国国民党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%AB%E4%B8%AD%E5%B1%B1</t>
   </si>
   <si>
-    <t>孫中山</t>
+    <t>孙中山</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%85%9A</t>
@@ -707,19 +695,16 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%99%E4%B8%AD%E5%B1%B1</t>
   </si>
   <si>
-    <t>孙中山</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%B3%E7%82%AF%E6%98%8E</t>
   </si>
   <si>
-    <t>陳炯明</t>
+    <t>陈炯明</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E8%87%B4%E5%85%AC%E9%BB%A8</t>
   </si>
   <si>
-    <t>中國致公黨</t>
+    <t>中国致公党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF</t>
@@ -731,7 +716,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E8%8F%AF%E4%B8%89%E9%99%A2</t>
   </si>
   <si>
-    <t>東華三院</t>
+    <t>东华三院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E8%89%AF%E5%B1%80</t>
@@ -743,37 +728,37 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B9%9D%E9%BE%8D%E6%A8%82%E5%96%84%E5%A0%82</t>
   </si>
   <si>
-    <t>九龍樂善堂</t>
+    <t>九龙乐善堂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%81%E6%BF%9F%E9%86%AB%E9%99%A2</t>
   </si>
   <si>
-    <t>仁濟醫院</t>
+    <t>仁济医院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E5%8D%9A%E6%84%9B%E9%86%AB%E9%99%A2</t>
   </si>
   <si>
-    <t>香港博愛醫院</t>
+    <t>香港博爱医院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%81%E6%84%9B%E5%A0%82</t>
   </si>
   <si>
-    <t>仁愛堂</t>
+    <t>仁爱堂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>中國大陸</t>
+    <t>中国大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%91%A8%E6%81%A9%E4%BE%86</t>
   </si>
   <si>
-    <t>周恩來</t>
+    <t>周恩来</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%BB%E7%90%86%E8%A1%99%E9%97%A8</t>
@@ -2406,7 +2391,7 @@
         <v>85</v>
       </c>
       <c r="F44" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="G44" t="n">
         <v>2</v>
@@ -2432,10 +2417,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>86</v>
+      </c>
+      <c r="F45" t="s">
         <v>87</v>
-      </c>
-      <c r="F45" t="s">
-        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2461,10 +2446,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" t="s">
         <v>89</v>
-      </c>
-      <c r="F46" t="s">
-        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>2</v>
@@ -2490,10 +2475,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F47" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="G47" t="n">
         <v>8</v>
@@ -2519,10 +2504,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F48" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G48" t="n">
         <v>3</v>
@@ -2548,10 +2533,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F49" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G49" t="n">
         <v>2</v>
@@ -2577,10 +2562,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F50" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G50" t="n">
         <v>4</v>
@@ -2606,10 +2591,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F51" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G51" t="n">
         <v>2</v>
@@ -2635,10 +2620,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F52" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G52" t="n">
         <v>2</v>
@@ -2664,10 +2649,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F53" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G53" t="n">
         <v>2</v>
@@ -2693,10 +2678,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F54" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2722,10 +2707,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F55" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2751,10 +2736,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F56" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2780,10 +2765,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F57" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2809,10 +2794,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F58" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2838,10 +2823,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F59" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G59" t="n">
         <v>2</v>
@@ -2867,10 +2852,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F60" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G60" t="n">
         <v>2</v>
@@ -2896,10 +2881,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F61" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G61" t="n">
         <v>2</v>
@@ -2925,10 +2910,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F62" t="s">
-        <v>122</v>
+        <v>74</v>
       </c>
       <c r="G62" t="n">
         <v>2</v>
@@ -2954,10 +2939,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F63" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G63" t="n">
         <v>6</v>
@@ -2983,10 +2968,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F64" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G64" t="n">
         <v>2</v>
@@ -3012,10 +2997,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F65" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G65" t="n">
         <v>2</v>
@@ -3041,10 +3026,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F66" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3070,10 +3055,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F67" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3099,10 +3084,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F68" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G68" t="n">
         <v>5</v>
@@ -3128,10 +3113,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F69" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3157,10 +3142,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F70" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G70" t="n">
         <v>3</v>
@@ -3186,10 +3171,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F71" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3215,10 +3200,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F72" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3244,10 +3229,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F73" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3273,10 +3258,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F74" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3302,10 +3287,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F75" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3331,10 +3316,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F76" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3360,10 +3345,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F77" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3389,10 +3374,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F78" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3418,10 +3403,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F79" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G79" t="n">
         <v>3</v>
@@ -3447,10 +3432,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F80" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G80" t="n">
         <v>7</v>
@@ -3476,10 +3461,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F81" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3505,10 +3490,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F82" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G82" t="n">
         <v>3</v>
@@ -3534,10 +3519,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F83" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3563,10 +3548,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F84" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G84" t="n">
         <v>3</v>
@@ -3592,10 +3577,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F85" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G85" t="n">
         <v>2</v>
@@ -3621,10 +3606,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F86" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3650,10 +3635,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F87" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3679,10 +3664,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F88" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3708,10 +3693,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F89" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3737,10 +3722,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F90" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3766,10 +3751,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F91" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G91" t="n">
         <v>2</v>
@@ -3795,10 +3780,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F92" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G92" t="n">
         <v>3</v>
@@ -3824,10 +3809,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F93" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G93" t="n">
         <v>2</v>
@@ -3853,10 +3838,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F94" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G94" t="n">
         <v>3</v>
@@ -3882,10 +3867,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F95" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G95" t="n">
         <v>3</v>
@@ -3911,10 +3896,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F96" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -3940,10 +3925,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F97" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G97" t="n">
         <v>2</v>
@@ -3969,10 +3954,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F98" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G98" t="n">
         <v>2</v>
@@ -3998,10 +3983,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F99" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4027,10 +4012,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F100" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4056,10 +4041,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F101" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G101" t="n">
         <v>7</v>
@@ -4085,10 +4070,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F102" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G102" t="n">
         <v>2</v>
@@ -4114,10 +4099,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F103" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4143,10 +4128,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F104" t="s">
-        <v>204</v>
+        <v>121</v>
       </c>
       <c r="G104" t="n">
         <v>3</v>
@@ -4172,10 +4157,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F105" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4201,10 +4186,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F106" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4230,10 +4215,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F107" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4259,10 +4244,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F108" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4288,10 +4273,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F109" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4317,10 +4302,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F110" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4346,10 +4331,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F111" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4375,10 +4360,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F112" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4404,10 +4389,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F113" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G113" t="n">
         <v>5</v>
@@ -4433,10 +4418,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F114" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G114" t="n">
         <v>2</v>
@@ -4462,10 +4447,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F115" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G115" t="n">
         <v>2</v>
@@ -4491,10 +4476,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F116" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4520,10 +4505,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F117" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4549,10 +4534,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F118" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4578,10 +4563,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F119" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4607,10 +4592,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F120" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="G120" t="n">
         <v>2</v>
@@ -4636,10 +4621,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F121" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4665,10 +4650,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F122" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4694,10 +4679,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F123" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4723,10 +4708,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F124" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -4752,10 +4737,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F125" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -4781,10 +4766,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F126" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -4810,10 +4795,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F127" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -4839,10 +4824,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F128" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G128" t="n">
         <v>2</v>
@@ -4868,10 +4853,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F129" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G129" t="n">
         <v>41</v>
@@ -4897,10 +4882,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F130" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G130" t="n">
         <v>3</v>
@@ -4926,10 +4911,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F131" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -4955,10 +4940,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F132" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -4984,10 +4969,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F133" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G133" t="n">
         <v>2</v>
@@ -5013,10 +4998,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F134" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
